--- a/bigcase/data/data1.xlsx
+++ b/bigcase/data/data1.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanyiping/Documents/GitHub/unit_commitment_code/bigcase/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BEBC11-701B-3D42-A788-E928824836B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="38400" windowHeight="24020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="units_frequencyparam"/>
-    <sheet r:id="rId2" sheetId="2" name="winds_frequencyparam"/>
-    <sheet r:id="rId3" sheetId="3" name="strogesystem_data"/>
-    <sheet r:id="rId4" sheetId="4" name="units_data"/>
-    <sheet r:id="rId5" sheetId="5" name="units_cost"/>
-    <sheet r:id="rId6" sheetId="6" name="branch_data"/>
-    <sheet r:id="rId7" sheetId="7" name="load_curve"/>
-    <sheet r:id="rId8" sheetId="8" name="load_data"/>
+    <sheet name="units_frequencyparam" sheetId="1" r:id="rId1"/>
+    <sheet name="winds_frequencyparam" sheetId="2" r:id="rId2"/>
+    <sheet name="strogesystem_data" sheetId="3" r:id="rId3"/>
+    <sheet name="units_data" sheetId="4" r:id="rId4"/>
+    <sheet name="units_cost" sheetId="5" r:id="rId5"/>
+    <sheet name="branch_data" sheetId="6" r:id="rId6"/>
+    <sheet name="load_curve" sheetId="7" r:id="rId7"/>
+    <sheet name="load_data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -170,9 +176,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +193,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF005cc5"/>
+      <color rgb="FF005CC5"/>
       <name val="DejaVu Sans Mono"/>
       <family val="2"/>
     </font>
@@ -208,7 +213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc6efce"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -229,16 +234,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -247,167 +252,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C92" displayName="表12" name="表12" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:C92"/>
-  <tableColumns count="3">
-    <tableColumn name="index" id="1"/>
-    <tableColumn name="locate_bus" id="2"/>
-    <tableColumn name="percent" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="A1:G55" totalsRowShown="0">
+  <autoFilter ref="A1:G55" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="index"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hg(3,9)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Dg(0,0.02)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Kg(0,1)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fg(0.15,0.4)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tg(6,14)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Rg(0.04,0.1)"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B25" displayName="表11" name="表11" id="2" totalsRowShown="0">
-  <autoFilter ref="A1:B25"/>
-  <tableColumns count="2">
-    <tableColumn name="index" id="1"/>
-    <tableColumn name="p" id="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A1:F11" totalsRowShown="0">
+  <autoFilter ref="A1:F11" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Fcmodel"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Kw"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Rw"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Mw"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dw"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Tw"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E187" displayName="表10" name="表10" id="3" totalsRowShown="0">
-  <autoFilter ref="A1:E187"/>
-  <tableColumns count="5">
-    <tableColumn name="index" id="1"/>
-    <tableColumn name="from" id="2"/>
-    <tableColumn name="to" id="3"/>
-    <tableColumn name="x" id="4"/>
-    <tableColumn name="p_max" id="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表3" displayName="表3" ref="A1:L2" totalsRowShown="0">
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="index"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="locate_bus"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="q_max"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="q_min"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="pg_max"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="pd_min"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="p_0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="charge_rate"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="discharge_rate"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="charge_effi"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="discharge_effi"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="lossing_effi"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H55" displayName="表7" name="表7" id="4" totalsRowShown="0">
-  <autoFilter ref="A1:H55"/>
-  <tableColumns count="8">
-    <tableColumn name="locate-bus" id="1"/>
-    <tableColumn name="Gens_c" id="2"/>
-    <tableColumn name="Gens_b" id="3"/>
-    <tableColumn name="Gens_a" id="4"/>
-    <tableColumn name="Gens_CD" id="5"/>
-    <tableColumn name="Gens_CU" id="6"/>
-    <tableColumn name="Gens_CU1" id="7"/>
-    <tableColumn name="Gens_Cold" id="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="表6" displayName="表6" ref="A1:M55" totalsRowShown="0">
+  <autoFilter ref="A1:M55" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="index"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="locate_bus"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="p_max"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="p_min"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Gens_RD"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Gens_RU"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Gens_SD"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Gens_SU"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Gens_TU"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Gens_TD"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Gens_x0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Gens_t0"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Gens_p0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M55" displayName="表6" name="表6" id="5" totalsRowShown="0">
-  <autoFilter ref="A1:M55"/>
-  <tableColumns count="13">
-    <tableColumn name="index" id="1"/>
-    <tableColumn name="locate_bus" id="2"/>
-    <tableColumn name="p_max" id="3"/>
-    <tableColumn name="p_min" id="4"/>
-    <tableColumn name="Gens_RD" id="5"/>
-    <tableColumn name="Gens_RU" id="6"/>
-    <tableColumn name="Gens_SD" id="7"/>
-    <tableColumn name="Gens_SU" id="8"/>
-    <tableColumn name="Gens_TU" id="9"/>
-    <tableColumn name="Gens_TD" id="10"/>
-    <tableColumn name="Gens_x0" id="11"/>
-    <tableColumn name="Gens_t0" id="12"/>
-    <tableColumn name="Gens_p0" id="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="表7" displayName="表7" ref="A1:H55" totalsRowShown="0">
+  <autoFilter ref="A1:H55" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="locate-bus"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Gens_c"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Gens_b"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Gens_a"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Gens_CD"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Gens_CU"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Gens_CU1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Gens_Cold"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L2" displayName="表3" name="表3" id="6" totalsRowShown="0">
-  <autoFilter ref="A1:L2"/>
-  <tableColumns count="12">
-    <tableColumn name="index" id="1"/>
-    <tableColumn name="locate_bus" id="2"/>
-    <tableColumn name="q_max" id="3"/>
-    <tableColumn name="q_min" id="4"/>
-    <tableColumn name="pg_max" id="5"/>
-    <tableColumn name="pd_min" id="6"/>
-    <tableColumn name="p_0" id="7"/>
-    <tableColumn name="charge_rate" id="8"/>
-    <tableColumn name="discharge_rate" id="9"/>
-    <tableColumn name="charge_effi" id="10"/>
-    <tableColumn name="discharge_effi" id="11"/>
-    <tableColumn name="lossing_effi" id="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="表10" displayName="表10" ref="A1:E187" totalsRowShown="0">
+  <autoFilter ref="A1:E187" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="index"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="from"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="to"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="x"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="p_max"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F11" displayName="表2" name="表2" id="7" totalsRowShown="0">
-  <autoFilter ref="A1:F11"/>
-  <tableColumns count="6">
-    <tableColumn name="Fcmodel" id="1"/>
-    <tableColumn name="Kw" id="2"/>
-    <tableColumn name="Rw" id="3"/>
-    <tableColumn name="Mw" id="4"/>
-    <tableColumn name="Dw" id="5"/>
-    <tableColumn name="Tw" id="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="表11" displayName="表11" ref="A1:B25" totalsRowShown="0">
+  <autoFilter ref="A1:B25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="index"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="p"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G55" displayName="表5" name="表5" id="8" totalsRowShown="0">
-  <autoFilter ref="A1:G55"/>
-  <tableColumns count="7">
-    <tableColumn name="index" id="1"/>
-    <tableColumn name="Hg(3,9)" id="2"/>
-    <tableColumn name="Dg(0,0.02)" id="3"/>
-    <tableColumn name="Kg(0,1)" id="4"/>
-    <tableColumn name="Fg(0.15,0.4)" id="5"/>
-    <tableColumn name="Tg(6,14)" id="6"/>
-    <tableColumn name="Rg(0.04,0.1)" id="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="表12" displayName="表12" ref="A1:C92" totalsRowShown="0">
+  <autoFilter ref="A1:C92" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="index"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="locate_bus"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="percent"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -416,10 +424,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -457,71 +465,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,7 +557,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -572,11 +580,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -585,13 +593,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -601,7 +609,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -610,7 +618,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -619,7 +627,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -627,10 +635,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -695,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -703,18 +711,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -760,7 +768,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -783,12 +791,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>4.4893</v>
+        <v>4.4893000000000001</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -806,7 +814,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -820,21 +828,21 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F5" s="2">
         <v>10.5</v>
       </c>
       <c r="G5" s="2">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>4.768</v>
+        <v>4.7679999999999998</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -843,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F6" s="2">
         <v>10.5</v>
@@ -852,7 +860,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -875,7 +883,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -898,7 +906,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -921,7 +929,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -944,12 +952,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3.006</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -964,15 +972,15 @@
         <v>10.5</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>3.704</v>
+        <v>3.7040000000000002</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -981,16 +989,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>0.267</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F12" s="2">
         <v>10.5</v>
       </c>
       <c r="G12" s="2">
-        <v>0.0122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1013,12 +1021,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:7" ht="19.5" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>6.187</v>
+        <v>6.1870000000000003</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1033,10 +1041,10 @@
         <v>10.5</v>
       </c>
       <c r="G14" s="2">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1059,7 +1067,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:7" ht="19.5" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:7" ht="19.5" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1105,12 +1113,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:7" ht="19.5" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>5.078</v>
+        <v>5.0780000000000003</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -1128,12 +1136,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>6.186</v>
+        <v>6.1859999999999999</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1151,12 +1159,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>6.187</v>
+        <v>6.1870000000000003</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1171,15 +1179,15 @@
         <v>10.5</v>
       </c>
       <c r="G20" s="2">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>3.006</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1194,15 +1202,15 @@
         <v>10.5</v>
       </c>
       <c r="G21" s="2">
-        <v>0.0152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>4.985</v>
+        <v>4.9850000000000003</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
@@ -1220,7 +1228,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1266,12 +1274,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>4.122</v>
+        <v>4.1219999999999999</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1280,21 +1288,21 @@
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>0.237</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F25" s="2">
         <v>10.5</v>
       </c>
       <c r="G25" s="2">
-        <v>0.0214</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>4.122</v>
+        <v>4.1219999999999999</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -1303,16 +1311,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0.237</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="F26" s="2">
         <v>10.5</v>
       </c>
       <c r="G26" s="2">
-        <v>0.0214</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1335,12 +1343,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>2.631</v>
+        <v>2.6309999999999998</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -1355,15 +1363,15 @@
         <v>10.5</v>
       </c>
       <c r="G28" s="2">
-        <v>0.0098</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>2.631</v>
+        <v>2.6309999999999998</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1378,10 +1386,10 @@
         <v>10.5</v>
       </c>
       <c r="G29" s="2">
-        <v>0.0098</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1395,16 +1403,16 @@
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F30" s="2">
         <v>10.5</v>
       </c>
       <c r="G30" s="2">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1427,7 +1435,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1473,7 +1481,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1496,7 +1504,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1556,16 +1564,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F37" s="2">
         <v>10.5</v>
       </c>
       <c r="G37" s="2">
-        <v>0.0085</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1588,7 +1596,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1611,12 +1619,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>6.187</v>
+        <v>6.1870000000000003</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -1631,15 +1639,15 @@
         <v>10.5</v>
       </c>
       <c r="G40" s="2">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>2.6419</v>
+        <v>2.6419000000000001</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
@@ -1654,15 +1662,15 @@
         <v>10.5</v>
       </c>
       <c r="G41" s="2">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>4.985</v>
+        <v>4.9850000000000003</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
@@ -1680,12 +1688,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>4.4893</v>
+        <v>4.4893000000000001</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -1703,7 +1711,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1726,12 +1734,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>6.186</v>
+        <v>6.1859999999999999</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -1749,12 +1757,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>3.006</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
@@ -1769,15 +1777,15 @@
         <v>10.5</v>
       </c>
       <c r="G46" s="2">
-        <v>0.0152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>4.985</v>
+        <v>4.9850000000000003</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -1795,7 +1803,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1818,7 +1826,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1841,12 +1849,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>4.4893</v>
+        <v>4.4893000000000001</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
@@ -1864,7 +1872,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1887,12 +1895,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>4.985</v>
+        <v>4.9850000000000003</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
@@ -1910,12 +1918,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>4.985</v>
+        <v>4.9850000000000003</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
@@ -1933,12 +1941,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>5.078</v>
+        <v>5.0780000000000003</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
@@ -1956,7 +1964,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1988,25 +1996,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2026,9 +2035,9 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2046,9 +2055,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -2066,9 +2075,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -2086,9 +2095,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -2106,9 +2115,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2126,9 +2135,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2146,9 +2155,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2166,9 +2175,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2186,9 +2195,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -2206,9 +2215,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2235,7 +2244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2243,23 +2252,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="5.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:12" ht="19.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2344,32 +2350,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2574,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3107,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3476,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3517,7 +3520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:13" ht="18.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:13" ht="18.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3722,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:13" ht="18.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3927,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3968,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4419,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:13" ht="18.75" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:13" ht="18.75" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4633,7 +4636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4641,19 +4644,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>25.92</v>
       </c>
       <c r="D2" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E2" s="1">
         <v>40</v>
@@ -4705,7 +4706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>25.92</v>
       </c>
       <c r="D3" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E3" s="1">
         <v>40</v>
@@ -4731,7 +4732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>25.92</v>
       </c>
       <c r="D4" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -4757,7 +4758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -4765,10 +4766,10 @@
         <v>1000</v>
       </c>
       <c r="C5" s="2">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="E5" s="1">
         <v>440</v>
@@ -4783,7 +4784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -4791,10 +4792,10 @@
         <v>970</v>
       </c>
       <c r="C6" s="2">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D6" s="2">
-        <v>0.00031</v>
+        <v>3.1E-4</v>
       </c>
       <c r="E6" s="1">
         <v>110</v>
@@ -4809,7 +4810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>25.92</v>
       </c>
       <c r="D7" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -4835,7 +4836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>16.5</v>
       </c>
       <c r="D8" s="2">
-        <v>0.00211</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="E8" s="1">
         <v>50</v>
@@ -4861,7 +4862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>19</v>
       </c>
@@ -4872,7 +4873,7 @@
         <v>25.92</v>
       </c>
       <c r="D9" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E9" s="1">
         <v>40</v>
@@ -4887,7 +4888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>24</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>25.92</v>
       </c>
       <c r="D10" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -4913,7 +4914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>25</v>
       </c>
@@ -4921,10 +4922,10 @@
         <v>1000</v>
       </c>
       <c r="C11" s="2">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -4939,7 +4940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -4947,10 +4948,10 @@
         <v>970</v>
       </c>
       <c r="C12" s="2">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D12" s="2">
-        <v>0.00031</v>
+        <v>3.1E-4</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -4965,7 +4966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>25.92</v>
       </c>
       <c r="D13" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E13" s="1">
         <v>40</v>
@@ -4991,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1">
       <c r="A14" s="1">
         <v>31</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>25.92</v>
       </c>
       <c r="D14" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E14" s="1">
         <v>40</v>
@@ -5017,7 +5018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1">
       <c r="A15" s="1">
         <v>32</v>
       </c>
@@ -5025,10 +5026,10 @@
         <v>700</v>
       </c>
       <c r="C15" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
@@ -5043,7 +5044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1">
       <c r="A16" s="1">
         <v>34</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>25.92</v>
       </c>
       <c r="D16" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E16" s="1">
         <v>40</v>
@@ -5069,7 +5070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1">
       <c r="A17" s="1">
         <v>36</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>16.5</v>
       </c>
       <c r="D17" s="2">
-        <v>0.00211</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="E17" s="1">
         <v>50</v>
@@ -5095,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" customHeight="1">
       <c r="A18" s="1">
         <v>40</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>25.92</v>
       </c>
       <c r="D18" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E18" s="1">
         <v>40</v>
@@ -5121,7 +5122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" customHeight="1">
       <c r="A19" s="1">
         <v>42</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>25.92</v>
       </c>
       <c r="D19" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E19" s="1">
         <v>40</v>
@@ -5147,7 +5148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" customHeight="1">
       <c r="A20" s="1">
         <v>46</v>
       </c>
@@ -5155,10 +5156,10 @@
         <v>700</v>
       </c>
       <c r="C20" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="E20" s="1">
         <v>59</v>
@@ -5173,7 +5174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" customHeight="1">
       <c r="A21" s="1">
         <v>49</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>16.5</v>
       </c>
       <c r="D21" s="2">
-        <v>0.00211</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
@@ -5199,7 +5200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" customHeight="1">
       <c r="A22" s="1">
         <v>54</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>19.7</v>
       </c>
       <c r="D22" s="2">
-        <v>0.00398</v>
+        <v>3.98E-3</v>
       </c>
       <c r="E22" s="1">
         <v>100</v>
@@ -5225,7 +5226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:8" ht="18.75" customHeight="1">
       <c r="A23" s="1">
         <v>55</v>
       </c>
@@ -5233,10 +5234,10 @@
         <v>700</v>
       </c>
       <c r="C23" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D23" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="E23" s="1">
         <v>50</v>
@@ -5251,7 +5252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1">
       <c r="A24" s="1">
         <v>56</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>16.5</v>
       </c>
       <c r="D24" s="2">
-        <v>0.00211</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="E24" s="1">
         <v>50</v>
@@ -5277,7 +5278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75" customHeight="1">
       <c r="A25" s="1">
         <v>59</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>19.7</v>
       </c>
       <c r="D25" s="2">
-        <v>0.00398</v>
+        <v>3.98E-3</v>
       </c>
       <c r="E25" s="1">
         <v>100</v>
@@ -5303,7 +5304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1">
       <c r="A26" s="1">
         <v>61</v>
       </c>
@@ -5311,10 +5312,10 @@
         <v>700</v>
       </c>
       <c r="C26" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D26" s="2">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="E26" s="1">
         <v>100</v>
@@ -5329,7 +5330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:8" ht="18.75" customHeight="1">
       <c r="A27" s="1">
         <v>62</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>16.5</v>
       </c>
       <c r="D27" s="2">
-        <v>0.00211</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
@@ -5355,7 +5356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:8" ht="18.75" customHeight="1">
       <c r="A28" s="1">
         <v>65</v>
       </c>
@@ -5363,10 +5364,10 @@
         <v>1000</v>
       </c>
       <c r="C28" s="2">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="D28" s="2">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="E28" s="1">
         <v>250</v>
@@ -5381,7 +5382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:8" ht="18.75" customHeight="1">
       <c r="A29" s="1">
         <v>66</v>
       </c>
@@ -5389,10 +5390,10 @@
         <v>970</v>
       </c>
       <c r="C29" s="2">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D29" s="2">
-        <v>0.00031</v>
+        <v>3.1E-4</v>
       </c>
       <c r="E29" s="1">
         <v>250</v>
@@ -5407,7 +5408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:8" ht="18.75" customHeight="1">
       <c r="A30" s="1">
         <v>69</v>
       </c>
@@ -5415,10 +5416,10 @@
         <v>1000</v>
       </c>
       <c r="C30" s="2">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="D30" s="2">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="E30" s="1">
         <v>100</v>
@@ -5433,7 +5434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1">
       <c r="A31" s="1">
         <v>70</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>22.26</v>
       </c>
       <c r="D31" s="2">
-        <v>0.00712</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="E31" s="1">
         <v>45</v>
@@ -5459,7 +5460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1">
       <c r="A32" s="1">
         <v>72</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>25.92</v>
       </c>
       <c r="D32" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E32" s="1">
         <v>40</v>
@@ -5485,7 +5486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:8" ht="18.75" customHeight="1">
       <c r="A33" s="1">
         <v>73</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>25.92</v>
       </c>
       <c r="D33" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E33" s="1">
         <v>40</v>
@@ -5511,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:8" ht="18.75" customHeight="1">
       <c r="A34" s="1">
         <v>74</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>25.92</v>
       </c>
       <c r="D34" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E34" s="1">
         <v>30</v>
@@ -5537,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:8" ht="18.75" customHeight="1">
       <c r="A35" s="1">
         <v>76</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>22.26</v>
       </c>
       <c r="D35" s="2">
-        <v>0.00712</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="E35" s="1">
         <v>50</v>
@@ -5563,7 +5564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:8" ht="18.75" customHeight="1">
       <c r="A36" s="1">
         <v>77</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>27.74</v>
       </c>
       <c r="D36" s="2">
-        <v>0.00079</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="E36" s="1">
         <v>50</v>
@@ -5589,7 +5590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:8" ht="18.75" customHeight="1">
       <c r="A37" s="1">
         <v>80</v>
       </c>
@@ -5597,10 +5598,10 @@
         <v>970</v>
       </c>
       <c r="C37" s="2">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D37" s="2">
-        <v>0.00031</v>
+        <v>3.1E-4</v>
       </c>
       <c r="E37" s="1">
         <v>440</v>
@@ -5615,7 +5616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:8" ht="18.75" customHeight="1">
       <c r="A38" s="1">
         <v>82</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>22.26</v>
       </c>
       <c r="D38" s="2">
-        <v>0.00712</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="E38" s="1">
         <v>50</v>
@@ -5641,7 +5642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:8" ht="18.75" customHeight="1">
       <c r="A39" s="1">
         <v>85</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>27.74</v>
       </c>
       <c r="D39" s="2">
-        <v>0.00079</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="E39" s="1">
         <v>40</v>
@@ -5667,7 +5668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:8" ht="18.75" customHeight="1">
       <c r="A40" s="1">
         <v>87</v>
       </c>
@@ -5675,10 +5676,10 @@
         <v>970</v>
       </c>
       <c r="C40" s="2">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D40" s="2">
-        <v>0.00031</v>
+        <v>3.1E-4</v>
       </c>
       <c r="E40" s="1">
         <v>440</v>
@@ -5693,7 +5694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:8" ht="18.75" customHeight="1">
       <c r="A41" s="1">
         <v>89</v>
       </c>
@@ -5701,10 +5702,10 @@
         <v>1000</v>
       </c>
       <c r="C41" s="2">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="D41" s="2">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="E41" s="1">
         <v>400</v>
@@ -5719,7 +5720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:8" ht="18.75" customHeight="1">
       <c r="A42" s="1">
         <v>90</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>25.92</v>
       </c>
       <c r="D42" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E42" s="1">
         <v>30</v>
@@ -5745,7 +5746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:8" ht="18.75" customHeight="1">
       <c r="A43" s="1">
         <v>91</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>25.92</v>
       </c>
       <c r="D43" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E43" s="1">
         <v>45</v>
@@ -5771,7 +5772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:8" ht="18.75" customHeight="1">
       <c r="A44" s="1">
         <v>92</v>
       </c>
@@ -5779,10 +5780,10 @@
         <v>1000</v>
       </c>
       <c r="C44" s="2">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="D44" s="2">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="E44" s="1">
         <v>100</v>
@@ -5797,7 +5798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:8" ht="18.75" customHeight="1">
       <c r="A45" s="1">
         <v>99</v>
       </c>
@@ -5805,10 +5806,10 @@
         <v>970</v>
       </c>
       <c r="C45" s="2">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="D45" s="2">
-        <v>0.00031</v>
+        <v>3.1E-4</v>
       </c>
       <c r="E45" s="1">
         <v>100</v>
@@ -5823,7 +5824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:8" ht="18.75" customHeight="1">
       <c r="A46" s="1">
         <v>100</v>
       </c>
@@ -5831,10 +5832,10 @@
         <v>1000</v>
       </c>
       <c r="C46" s="2">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="D46" s="2">
-        <v>0.00048</v>
+        <v>4.8000000000000001E-4</v>
       </c>
       <c r="E46" s="1">
         <v>110</v>
@@ -5849,7 +5850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:8" ht="18.75" customHeight="1">
       <c r="A47" s="1">
         <v>103</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>25.92</v>
       </c>
       <c r="D47" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E47" s="1">
         <v>30</v>
@@ -5875,7 +5876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:8" ht="18.75" customHeight="1">
       <c r="A48" s="1">
         <v>104</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>22.26</v>
       </c>
       <c r="D48" s="2">
-        <v>0.00712</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="E48" s="1">
         <v>50</v>
@@ -5901,7 +5902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1">
       <c r="A49" s="1">
         <v>105</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>27.74</v>
       </c>
       <c r="D49" s="2">
-        <v>0.00079</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="E49" s="1">
         <v>50</v>
@@ -5927,7 +5928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1">
       <c r="A50" s="1">
         <v>107</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>25.92</v>
       </c>
       <c r="D50" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E50" s="1">
         <v>30</v>
@@ -5953,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1">
       <c r="A51" s="1">
         <v>110</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>25.92</v>
       </c>
       <c r="D51" s="2">
-        <v>0.00413</v>
+        <v>4.13E-3</v>
       </c>
       <c r="E51" s="1">
         <v>45</v>
@@ -5979,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1">
       <c r="A52" s="1">
         <v>111</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>22.26</v>
       </c>
       <c r="D52" s="2">
-        <v>0.00712</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="E52" s="1">
         <v>50</v>
@@ -6005,7 +6006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1">
       <c r="A53" s="1">
         <v>112</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>27.74</v>
       </c>
       <c r="D53" s="2">
-        <v>0.00079</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="E53" s="1">
         <v>50</v>
@@ -6031,7 +6032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1">
       <c r="A54" s="1">
         <v>113</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>22.26</v>
       </c>
       <c r="D54" s="2">
-        <v>0.00712</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="E54" s="1">
         <v>50</v>
@@ -6057,7 +6058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1">
       <c r="A55" s="1">
         <v>116</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>27.74</v>
       </c>
       <c r="D55" s="2">
-        <v>0.00079</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="E55" s="1">
         <v>45</v>
@@ -6092,7 +6093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6100,16 +6101,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6137,13 +6137,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0999</v>
+        <v>9.9900000000000003E-2</v>
       </c>
       <c r="E2" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6154,13 +6154,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0424</v>
+        <v>4.24E-2</v>
       </c>
       <c r="E3" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6171,13 +6171,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>0.00798</v>
+        <v>7.9799999999999992E-3</v>
       </c>
       <c r="E4" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:5" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6205,13 +6205,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E6" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6222,13 +6222,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>0.0208</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="E7" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6239,13 +6239,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>0.0305</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="E8" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6256,13 +6256,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>0.0267</v>
+        <v>2.6700000000000002E-2</v>
       </c>
       <c r="E9" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -6273,13 +6273,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="2">
-        <v>0.0322</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="E10" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -6290,13 +6290,13 @@
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>0.0688</v>
+        <v>6.88E-2</v>
       </c>
       <c r="E11" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -6307,13 +6307,13 @@
         <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>0.0682</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="E12" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -6324,13 +6324,13 @@
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>0.0196</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -6341,13 +6341,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>0.0616</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="E14" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6375,13 +6375,13 @@
         <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E16" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:5" ht="18.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6392,13 +6392,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="2">
-        <v>0.0731</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="E17" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:5" ht="18.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -6409,13 +6409,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="2">
-        <v>0.0707</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="E18" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:5" ht="18.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -6426,13 +6426,13 @@
         <v>15</v>
       </c>
       <c r="D19" s="2">
-        <v>0.2444</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="E19" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:5" ht="18.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6443,13 +6443,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>0.195</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="E20" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:5" ht="18.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6460,13 +6460,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>0.0834</v>
+        <v>8.3400000000000002E-2</v>
       </c>
       <c r="E21" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:5" ht="18.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6477,13 +6477,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="2">
-        <v>0.0437</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="E22" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:5" ht="18.75" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -6494,13 +6494,13 @@
         <v>17</v>
       </c>
       <c r="D23" s="2">
-        <v>0.1801</v>
+        <v>0.18010000000000001</v>
       </c>
       <c r="E23" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:5" ht="18.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -6511,13 +6511,13 @@
         <v>18</v>
       </c>
       <c r="D24" s="2">
-        <v>0.0505</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="E24" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:5" ht="18.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -6528,13 +6528,13 @@
         <v>19</v>
       </c>
       <c r="D25" s="2">
-        <v>0.0493</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="E25" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:5" ht="18.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -6545,13 +6545,13 @@
         <v>20</v>
       </c>
       <c r="D26" s="2">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E26" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:5" ht="18.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -6562,13 +6562,13 @@
         <v>19</v>
       </c>
       <c r="D27" s="2">
-        <v>0.0394</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="E27" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:5" ht="18.75" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -6579,13 +6579,13 @@
         <v>21</v>
       </c>
       <c r="D28" s="2">
-        <v>0.0849</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E28" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6596,13 +6596,13 @@
         <v>22</v>
       </c>
       <c r="D29" s="2">
-        <v>0.097</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E29" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6630,13 +6630,13 @@
         <v>24</v>
       </c>
       <c r="D31" s="2">
-        <v>0.0492</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="E31" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6664,13 +6664,13 @@
         <v>25</v>
       </c>
       <c r="D33" s="2">
-        <v>0.0382</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="E33" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6681,13 +6681,13 @@
         <v>27</v>
       </c>
       <c r="D34" s="2">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E34" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6698,13 +6698,13 @@
         <v>28</v>
       </c>
       <c r="D35" s="2">
-        <v>0.0855</v>
+        <v>8.5500000000000007E-2</v>
       </c>
       <c r="E35" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6715,13 +6715,13 @@
         <v>29</v>
       </c>
       <c r="D36" s="2">
-        <v>0.0943</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="E36" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6732,13 +6732,13 @@
         <v>17</v>
       </c>
       <c r="D37" s="2">
-        <v>0.0388</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="E37" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6749,13 +6749,13 @@
         <v>30</v>
       </c>
       <c r="D38" s="2">
-        <v>0.0504</v>
+        <v>5.04E-2</v>
       </c>
       <c r="E38" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6766,13 +6766,13 @@
         <v>30</v>
       </c>
       <c r="D39" s="2">
-        <v>0.086</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="E39" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6783,13 +6783,13 @@
         <v>31</v>
       </c>
       <c r="D40" s="2">
-        <v>0.1563</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="E40" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6800,13 +6800,13 @@
         <v>31</v>
       </c>
       <c r="D41" s="2">
-        <v>0.0331</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="E41" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6834,13 +6834,13 @@
         <v>32</v>
       </c>
       <c r="D43" s="2">
-        <v>0.0985</v>
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="E43" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6851,13 +6851,13 @@
         <v>32</v>
       </c>
       <c r="D44" s="2">
-        <v>0.0755</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E44" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:5" ht="18.75" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6902,13 +6902,13 @@
         <v>36</v>
       </c>
       <c r="D47" s="2">
-        <v>0.0102</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E47" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6919,13 +6919,13 @@
         <v>37</v>
       </c>
       <c r="D48" s="2">
-        <v>0.0497</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="E48" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6936,13 +6936,13 @@
         <v>37</v>
       </c>
       <c r="D49" s="2">
-        <v>0.142</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="E49" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6953,13 +6953,13 @@
         <v>36</v>
       </c>
       <c r="D50" s="2">
-        <v>0.0268</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="E50" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6970,13 +6970,13 @@
         <v>37</v>
       </c>
       <c r="D51" s="2">
-        <v>0.0094</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="E51" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6987,13 +6987,13 @@
         <v>37</v>
       </c>
       <c r="D52" s="2">
-        <v>0.0375</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E52" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7021,13 +7021,13 @@
         <v>40</v>
       </c>
       <c r="D54" s="2">
-        <v>0.168</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E54" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7038,13 +7038,13 @@
         <v>38</v>
       </c>
       <c r="D55" s="2">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E55" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7055,13 +7055,13 @@
         <v>40</v>
       </c>
       <c r="D56" s="2">
-        <v>0.0605</v>
+        <v>6.0499999999999998E-2</v>
       </c>
       <c r="E56" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:5" ht="18.75" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7072,13 +7072,13 @@
         <v>41</v>
       </c>
       <c r="D57" s="2">
-        <v>0.0487</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E57" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:5" ht="18.75" customHeight="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:5" ht="18.75" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7106,13 +7106,13 @@
         <v>42</v>
       </c>
       <c r="D59" s="2">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E59" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:5" ht="18.75" customHeight="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7123,13 +7123,13 @@
         <v>44</v>
       </c>
       <c r="D60" s="2">
-        <v>0.2454</v>
+        <v>0.24540000000000001</v>
       </c>
       <c r="E60" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:5" ht="18.75" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:5" ht="18.75" customHeight="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7157,13 +7157,13 @@
         <v>45</v>
       </c>
       <c r="D62" s="2">
-        <v>0.0901</v>
+        <v>9.01E-2</v>
       </c>
       <c r="E62" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:5" ht="18.75" customHeight="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:5" ht="18.75" customHeight="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:5" ht="18.75" customHeight="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:5" ht="18.75" customHeight="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7225,13 +7225,13 @@
         <v>49</v>
       </c>
       <c r="D66" s="2">
-        <v>0.0625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E66" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:5" ht="18.75" customHeight="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7242,13 +7242,13 @@
         <v>49</v>
       </c>
       <c r="D67" s="2">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E67" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:5" ht="18.75" customHeight="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7259,13 +7259,13 @@
         <v>49</v>
       </c>
       <c r="D68" s="2">
-        <v>0.323</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E68" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:5" ht="18.75" customHeight="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:5" ht="18.75" customHeight="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7293,13 +7293,13 @@
         <v>49</v>
       </c>
       <c r="D70" s="2">
-        <v>0.0505</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="E70" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:5" ht="18.75" customHeight="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7310,13 +7310,13 @@
         <v>50</v>
       </c>
       <c r="D71" s="2">
-        <v>0.0752</v>
+        <v>7.5200000000000003E-2</v>
       </c>
       <c r="E71" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:5" ht="18.75" customHeight="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -7327,13 +7327,13 @@
         <v>51</v>
       </c>
       <c r="D72" s="2">
-        <v>0.137</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E72" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:5" ht="18.75" customHeight="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -7344,13 +7344,13 @@
         <v>52</v>
       </c>
       <c r="D73" s="2">
-        <v>0.0588</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="E73" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:5" ht="18.75" customHeight="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -7361,13 +7361,13 @@
         <v>53</v>
       </c>
       <c r="D74" s="2">
-        <v>0.1635</v>
+        <v>0.16350000000000001</v>
       </c>
       <c r="E74" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:5" ht="18.75" customHeight="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:5" ht="18.75" customHeight="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -7395,13 +7395,13 @@
         <v>54</v>
       </c>
       <c r="D76" s="2">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="E76" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:5" ht="18.75" customHeight="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -7412,13 +7412,13 @@
         <v>54</v>
       </c>
       <c r="D77" s="2">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="E77" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:5" ht="18.75" customHeight="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -7429,13 +7429,13 @@
         <v>55</v>
       </c>
       <c r="D78" s="2">
-        <v>0.0707</v>
+        <v>7.0699999999999999E-2</v>
       </c>
       <c r="E78" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:5" ht="18.75" customHeight="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -7446,13 +7446,13 @@
         <v>56</v>
       </c>
       <c r="D79" s="2">
-        <v>0.00955</v>
+        <v>9.5499999999999995E-3</v>
       </c>
       <c r="E79" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:5" ht="18.75" customHeight="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -7463,13 +7463,13 @@
         <v>56</v>
       </c>
       <c r="D80" s="2">
-        <v>0.0151</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="E80" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:5" ht="18.75" customHeight="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -7480,13 +7480,13 @@
         <v>57</v>
       </c>
       <c r="D81" s="2">
-        <v>0.0966</v>
+        <v>9.6600000000000005E-2</v>
       </c>
       <c r="E81" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:5" ht="18.75" customHeight="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -7497,13 +7497,13 @@
         <v>57</v>
       </c>
       <c r="D82" s="2">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E82" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:5" ht="18.75" customHeight="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7514,13 +7514,13 @@
         <v>58</v>
       </c>
       <c r="D83" s="2">
-        <v>0.0966</v>
+        <v>9.6600000000000005E-2</v>
       </c>
       <c r="E83" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:5" ht="18.75" customHeight="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -7531,13 +7531,13 @@
         <v>58</v>
       </c>
       <c r="D84" s="2">
-        <v>0.0719</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="E84" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:5" ht="18.75" customHeight="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:5" ht="18.75" customHeight="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:5" ht="18.75" customHeight="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -7582,13 +7582,13 @@
         <v>59</v>
       </c>
       <c r="D87" s="2">
-        <v>0.239</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="E87" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:5" ht="18.75" customHeight="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7599,13 +7599,13 @@
         <v>59</v>
       </c>
       <c r="D88" s="2">
-        <v>0.2158</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="E88" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:5" ht="18.75" customHeight="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7616,13 +7616,13 @@
         <v>60</v>
       </c>
       <c r="D89" s="2">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E89" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:5" ht="18.75" customHeight="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:5" ht="18.75" customHeight="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7650,13 +7650,13 @@
         <v>61</v>
       </c>
       <c r="D91" s="2">
-        <v>0.0135</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E91" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:5" ht="18.75" customHeight="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7667,13 +7667,13 @@
         <v>62</v>
       </c>
       <c r="D92" s="2">
-        <v>0.0561</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="E92" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:5" ht="18.75" customHeight="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7684,13 +7684,13 @@
         <v>62</v>
       </c>
       <c r="D93" s="2">
-        <v>0.0376</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="E93" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:5" ht="18.75" customHeight="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7701,13 +7701,13 @@
         <v>59</v>
       </c>
       <c r="D94" s="2">
-        <v>0.0386</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="E94" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:5" ht="18.75" customHeight="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:5" ht="18.75" customHeight="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7735,13 +7735,13 @@
         <v>61</v>
       </c>
       <c r="D96" s="2">
-        <v>0.0268</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="E96" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:5" ht="18.75" customHeight="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7752,13 +7752,13 @@
         <v>65</v>
       </c>
       <c r="D97" s="2">
-        <v>0.0986</v>
+        <v>9.8599999999999993E-2</v>
       </c>
       <c r="E97" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:5" ht="18.75" customHeight="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7769,13 +7769,13 @@
         <v>65</v>
       </c>
       <c r="D98" s="2">
-        <v>0.0302</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="E98" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:5" ht="18.75" customHeight="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7786,13 +7786,13 @@
         <v>66</v>
       </c>
       <c r="D99" s="2">
-        <v>0.0919</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="E99" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:5" ht="18.75" customHeight="1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7803,13 +7803,13 @@
         <v>66</v>
       </c>
       <c r="D100" s="2">
-        <v>0.0919</v>
+        <v>9.1899999999999996E-2</v>
       </c>
       <c r="E100" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:5" ht="18.75" customHeight="1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:5" ht="18.75" customHeight="1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7837,13 +7837,13 @@
         <v>67</v>
       </c>
       <c r="D102" s="2">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E102" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:5" ht="18.75" customHeight="1">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7854,13 +7854,13 @@
         <v>66</v>
       </c>
       <c r="D103" s="2">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E103" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:5" ht="18.75" customHeight="1">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7871,13 +7871,13 @@
         <v>67</v>
       </c>
       <c r="D104" s="2">
-        <v>0.1015</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="E104" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:5" ht="18.75" customHeight="1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7888,13 +7888,13 @@
         <v>68</v>
       </c>
       <c r="D105" s="2">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E105" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:5" ht="18.75" customHeight="1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7905,13 +7905,13 @@
         <v>69</v>
       </c>
       <c r="D106" s="2">
-        <v>0.2778</v>
+        <v>0.27779999999999999</v>
       </c>
       <c r="E106" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:5" ht="18.75" customHeight="1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7922,13 +7922,13 @@
         <v>69</v>
       </c>
       <c r="D107" s="2">
-        <v>0.324</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="E107" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:5" ht="18.75" customHeight="1">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7939,13 +7939,13 @@
         <v>69</v>
       </c>
       <c r="D108" s="2">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E108" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:5" ht="18.75" customHeight="1">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:5" ht="18.75" customHeight="1">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7973,13 +7973,13 @@
         <v>70</v>
       </c>
       <c r="D110" s="2">
-        <v>0.4115</v>
+        <v>0.41149999999999998</v>
       </c>
       <c r="E110" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:5" ht="18.75" customHeight="1">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7990,13 +7990,13 @@
         <v>71</v>
       </c>
       <c r="D111" s="2">
-        <v>0.0355</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E111" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:5" ht="18.75" customHeight="1">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -8007,13 +8007,13 @@
         <v>72</v>
       </c>
       <c r="D112" s="2">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E112" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:5" ht="18.75" customHeight="1">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:5" ht="18.75" customHeight="1">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -8041,13 +8041,13 @@
         <v>73</v>
       </c>
       <c r="D114" s="2">
-        <v>0.0454</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="E114" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:5" ht="18.75" customHeight="1">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:5" ht="18.75" customHeight="1">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -8075,13 +8075,13 @@
         <v>75</v>
       </c>
       <c r="D116" s="2">
-        <v>0.141</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="E116" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:5" ht="18.75" customHeight="1">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:5" ht="18.75" customHeight="1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -8109,13 +8109,13 @@
         <v>75</v>
       </c>
       <c r="D118" s="2">
-        <v>0.0406</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="E118" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:5" ht="18.75" customHeight="1">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -8126,13 +8126,13 @@
         <v>77</v>
       </c>
       <c r="D119" s="2">
-        <v>0.148</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E119" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:5" ht="18.75" customHeight="1">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -8143,13 +8143,13 @@
         <v>77</v>
       </c>
       <c r="D120" s="2">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E120" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:5" ht="18.75" customHeight="1">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -8160,13 +8160,13 @@
         <v>77</v>
       </c>
       <c r="D121" s="2">
-        <v>0.1999</v>
+        <v>0.19989999999999999</v>
       </c>
       <c r="E121" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:5" ht="18.75" customHeight="1">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -8177,13 +8177,13 @@
         <v>78</v>
       </c>
       <c r="D122" s="2">
-        <v>0.0124</v>
+        <v>1.24E-2</v>
       </c>
       <c r="E122" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:5" ht="18.75" customHeight="1">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -8194,13 +8194,13 @@
         <v>79</v>
       </c>
       <c r="D123" s="2">
-        <v>0.0244</v>
+        <v>2.4400000000000002E-2</v>
       </c>
       <c r="E123" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:5" ht="18.75" customHeight="1">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -8211,13 +8211,13 @@
         <v>80</v>
       </c>
       <c r="D124" s="2">
-        <v>0.0485</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="E124" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:5" ht="18.75" customHeight="1">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:5" ht="18.75" customHeight="1">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8245,13 +8245,13 @@
         <v>80</v>
       </c>
       <c r="D126" s="2">
-        <v>0.0704</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="E126" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:5" ht="18.75" customHeight="1">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -8262,13 +8262,13 @@
         <v>81</v>
       </c>
       <c r="D127" s="2">
-        <v>0.0202</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="E127" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:5" ht="18.75" customHeight="1">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -8279,13 +8279,13 @@
         <v>80</v>
       </c>
       <c r="D128" s="2">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E128" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:5" ht="18.75" customHeight="1">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -8296,13 +8296,13 @@
         <v>82</v>
       </c>
       <c r="D129" s="2">
-        <v>0.0853</v>
+        <v>8.5300000000000001E-2</v>
       </c>
       <c r="E129" s="1">
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:5" ht="18.75" customHeight="1">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -8313,13 +8313,13 @@
         <v>83</v>
       </c>
       <c r="D130" s="2">
-        <v>0.03665</v>
+        <v>3.6650000000000002E-2</v>
       </c>
       <c r="E130" s="1">
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:5" ht="18.75" customHeight="1">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -8330,13 +8330,13 @@
         <v>84</v>
       </c>
       <c r="D131" s="2">
-        <v>0.132</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="E131" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:5" ht="18.75" customHeight="1">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -8347,13 +8347,13 @@
         <v>85</v>
       </c>
       <c r="D132" s="2">
-        <v>0.148</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E132" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:5" ht="18.75" customHeight="1">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -8364,13 +8364,13 @@
         <v>85</v>
       </c>
       <c r="D133" s="2">
-        <v>0.0641</v>
+        <v>6.4100000000000004E-2</v>
       </c>
       <c r="E133" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:5" ht="18.75" customHeight="1">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:5" ht="18.75" customHeight="1">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:5" ht="18.75" customHeight="1">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -8415,13 +8415,13 @@
         <v>88</v>
       </c>
       <c r="D136" s="2">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E136" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:5" ht="18.75" customHeight="1">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -8432,13 +8432,13 @@
         <v>89</v>
       </c>
       <c r="D137" s="2">
-        <v>0.173</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="E137" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:5" ht="18.75" customHeight="1">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -8449,13 +8449,13 @@
         <v>89</v>
       </c>
       <c r="D138" s="2">
-        <v>0.0712</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="E138" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:5" ht="18.75" customHeight="1">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:5" ht="18.75" customHeight="1">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -8483,13 +8483,13 @@
         <v>90</v>
       </c>
       <c r="D140" s="2">
-        <v>0.0997</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="E140" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:5" ht="18.75" customHeight="1">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8500,13 +8500,13 @@
         <v>91</v>
       </c>
       <c r="D141" s="2">
-        <v>0.0836</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="E141" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:5" ht="18.75" customHeight="1">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8517,13 +8517,13 @@
         <v>92</v>
       </c>
       <c r="D142" s="2">
-        <v>0.0505</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="E142" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:5" ht="18.75" customHeight="1">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8534,13 +8534,13 @@
         <v>92</v>
       </c>
       <c r="D143" s="2">
-        <v>0.1581</v>
+        <v>0.15809999999999999</v>
       </c>
       <c r="E143" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:5" ht="18.75" customHeight="1">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8551,13 +8551,13 @@
         <v>92</v>
       </c>
       <c r="D144" s="2">
-        <v>0.1272</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="E144" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:5" ht="18.75" customHeight="1">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8568,13 +8568,13 @@
         <v>93</v>
       </c>
       <c r="D145" s="2">
-        <v>0.0848</v>
+        <v>8.48E-2</v>
       </c>
       <c r="E145" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:5" ht="18.75" customHeight="1">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:5" ht="18.75" customHeight="1">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8602,13 +8602,13 @@
         <v>94</v>
       </c>
       <c r="D147" s="2">
-        <v>0.0732</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="E147" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:5" ht="18.75" customHeight="1">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -8619,13 +8619,13 @@
         <v>95</v>
       </c>
       <c r="D148" s="2">
-        <v>0.0434</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="E148" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:5" ht="18.75" customHeight="1">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:5" ht="18.75" customHeight="1">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8653,13 +8653,13 @@
         <v>96</v>
       </c>
       <c r="D150" s="2">
-        <v>0.053</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E150" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:5" ht="18.75" customHeight="1">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8670,13 +8670,13 @@
         <v>96</v>
       </c>
       <c r="D151" s="2">
-        <v>0.0869</v>
+        <v>8.6900000000000005E-2</v>
       </c>
       <c r="E151" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:5" ht="18.75" customHeight="1">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8687,13 +8687,13 @@
         <v>97</v>
       </c>
       <c r="D152" s="2">
-        <v>0.0934</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="E152" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:5" ht="18.75" customHeight="1">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:5" ht="18.75" customHeight="1">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8721,13 +8721,13 @@
         <v>99</v>
       </c>
       <c r="D154" s="2">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E154" s="1">
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:5" ht="18.75" customHeight="1">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8738,13 +8738,13 @@
         <v>100</v>
       </c>
       <c r="D155" s="2">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="E155" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:5" ht="18.75" customHeight="1">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8755,13 +8755,13 @@
         <v>100</v>
       </c>
       <c r="D156" s="2">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E156" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:5" ht="18.75" customHeight="1">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8772,13 +8772,13 @@
         <v>96</v>
       </c>
       <c r="D157" s="2">
-        <v>0.0547</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="E157" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:5" ht="18.75" customHeight="1">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8789,13 +8789,13 @@
         <v>97</v>
       </c>
       <c r="D158" s="2">
-        <v>0.0885</v>
+        <v>8.8499999999999995E-2</v>
       </c>
       <c r="E158" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:5" ht="18.75" customHeight="1">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8806,13 +8806,13 @@
         <v>100</v>
       </c>
       <c r="D159" s="2">
-        <v>0.179</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E159" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:5" ht="18.75" customHeight="1">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8823,13 +8823,13 @@
         <v>100</v>
       </c>
       <c r="D160" s="2">
-        <v>0.0813</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="E160" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:5" ht="18.75" customHeight="1">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8840,13 +8840,13 @@
         <v>101</v>
       </c>
       <c r="D161" s="2">
-        <v>0.1262</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="E161" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:5" ht="18.75" customHeight="1">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8857,13 +8857,13 @@
         <v>102</v>
       </c>
       <c r="D162" s="2">
-        <v>0.0559</v>
+        <v>5.5899999999999998E-2</v>
       </c>
       <c r="E162" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:5" ht="18.75" customHeight="1">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:5" ht="18.75" customHeight="1">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8891,13 +8891,13 @@
         <v>103</v>
       </c>
       <c r="D164" s="2">
-        <v>0.0525</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="E164" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:5" ht="18.75" customHeight="1">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8908,13 +8908,13 @@
         <v>104</v>
       </c>
       <c r="D165" s="2">
-        <v>0.204</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="E165" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:5" ht="18.75" customHeight="1">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8925,13 +8925,13 @@
         <v>104</v>
       </c>
       <c r="D166" s="2">
-        <v>0.1584</v>
+        <v>0.15840000000000001</v>
       </c>
       <c r="E166" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:5" ht="18.75" customHeight="1">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8942,13 +8942,13 @@
         <v>105</v>
       </c>
       <c r="D167" s="2">
-        <v>0.1625</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="E167" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:5" ht="18.75" customHeight="1">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8959,13 +8959,13 @@
         <v>106</v>
       </c>
       <c r="D168" s="2">
-        <v>0.229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E168" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:5" ht="18.75" customHeight="1">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8976,13 +8976,13 @@
         <v>105</v>
       </c>
       <c r="D169" s="2">
-        <v>0.0378</v>
+        <v>3.78E-2</v>
       </c>
       <c r="E169" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:5" ht="18.75" customHeight="1">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8993,13 +8993,13 @@
         <v>106</v>
       </c>
       <c r="D170" s="2">
-        <v>0.0547</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="E170" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:5" ht="18.75" customHeight="1">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:5" ht="18.75" customHeight="1">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -9027,13 +9027,13 @@
         <v>108</v>
       </c>
       <c r="D172" s="2">
-        <v>0.0703</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="E172" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:5" ht="18.75" customHeight="1">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:5" ht="18.75" customHeight="1">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -9061,13 +9061,13 @@
         <v>109</v>
       </c>
       <c r="D174" s="2">
-        <v>0.0288</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="E174" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:5" ht="18.75" customHeight="1">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -9078,13 +9078,13 @@
         <v>110</v>
       </c>
       <c r="D175" s="2">
-        <v>0.1813</v>
+        <v>0.18129999999999999</v>
       </c>
       <c r="E175" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:5" ht="18.75" customHeight="1">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -9095,13 +9095,13 @@
         <v>110</v>
       </c>
       <c r="D176" s="2">
-        <v>0.0762</v>
+        <v>7.6200000000000004E-2</v>
       </c>
       <c r="E176" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:5" ht="18.75" customHeight="1">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -9112,13 +9112,13 @@
         <v>111</v>
       </c>
       <c r="D177" s="2">
-        <v>0.0755</v>
+        <v>7.5499999999999998E-2</v>
       </c>
       <c r="E177" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:5" ht="18.75" customHeight="1">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -9129,13 +9129,13 @@
         <v>112</v>
       </c>
       <c r="D178" s="2">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E178" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:5" ht="18.75" customHeight="1">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -9146,13 +9146,13 @@
         <v>113</v>
       </c>
       <c r="D179" s="2">
-        <v>0.0301</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="E179" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:5" ht="18.75" customHeight="1">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -9163,13 +9163,13 @@
         <v>113</v>
       </c>
       <c r="D180" s="2">
-        <v>0.203</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="E180" s="1">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:5" ht="18.75" customHeight="1">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -9180,13 +9180,13 @@
         <v>114</v>
       </c>
       <c r="D181" s="2">
-        <v>0.0612</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="E181" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:5" ht="18.75" customHeight="1">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -9197,13 +9197,13 @@
         <v>115</v>
       </c>
       <c r="D182" s="2">
-        <v>0.0741</v>
+        <v>7.4099999999999999E-2</v>
       </c>
       <c r="E182" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:5" ht="18.75" customHeight="1">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -9214,13 +9214,13 @@
         <v>115</v>
       </c>
       <c r="D183" s="2">
-        <v>0.0104</v>
+        <v>1.04E-2</v>
       </c>
       <c r="E183" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:5" ht="18.75" customHeight="1">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -9231,13 +9231,13 @@
         <v>116</v>
       </c>
       <c r="D184" s="2">
-        <v>0.00405</v>
+        <v>4.0499999999999998E-3</v>
       </c>
       <c r="E184" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:5" ht="18.75" customHeight="1">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -9248,13 +9248,13 @@
         <v>117</v>
       </c>
       <c r="D185" s="2">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E185" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:5" ht="18.75" customHeight="1">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -9265,13 +9265,13 @@
         <v>118</v>
       </c>
       <c r="D186" s="2">
-        <v>0.0481</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E186" s="1">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:5" ht="18.75" customHeight="1">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>118</v>
       </c>
       <c r="D187" s="2">
-        <v>0.0544</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="E187" s="1">
         <v>175</v>
@@ -9297,7 +9297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -9305,13 +9305,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>3390.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>3162.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>2707.04</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>1720.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>1416.4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>2175.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>2934.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>3618.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>4073.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>4453.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>4718.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9415,15 +9415,15 @@
         <v>4567.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>4225.44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>4225.4399999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9431,15 +9431,15 @@
         <v>3921.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>4225.44</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>4225.4399999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>4756.88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>4605.04</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>4946.68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>5288.32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9487,15 +9487,15 @@
         <v>5516.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>5212.4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>5212.3999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>4718.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9520,7 +9520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -9528,14 +9528,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -9554,10 +9554,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>0.014503</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>1.4503E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -9565,10 +9565,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>0.005687</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+        <v>5.6870000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -9576,10 +9576,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>0.01109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>1.1089999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -9587,10 +9587,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>0.008532</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>8.5319999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -9598,10 +9598,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <v>0.014787</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>1.4787E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -9609,10 +9609,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <v>0.005403</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>5.4029999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -9620,10 +9620,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>0.019906</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>1.9906E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9631,10 +9631,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>0.013364</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>1.3363999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -9642,10 +9642,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>0.009668</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>9.6679999999999995E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -9653,10 +9653,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>0.003981</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>3.9810000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -9664,10 +9664,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>0.025593</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>2.5593000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9675,10 +9675,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>0.007109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>7.1089999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -9686,10 +9686,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>0.003129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>3.1289999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -9697,10 +9697,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>0.017061</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>1.7061E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9708,10 +9708,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>0.012796</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>1.2796E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -9719,10 +9719,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>0.005119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>5.1190000000000003E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -9730,10 +9730,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>0.003981</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>3.9810000000000002E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -9741,10 +9741,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>0.002845</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>2.8449999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -9752,10 +9752,10 @@
         <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>0.00199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>1.99E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -9763,10 +9763,10 @@
         <v>27</v>
       </c>
       <c r="C21" s="2">
-        <v>0.017632</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>1.7631999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -9774,10 +9774,10 @@
         <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>0.004835</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>4.8349999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -9785,10 +9785,10 @@
         <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>0.006825</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>6.8250000000000003E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -9796,10 +9796,10 @@
         <v>31</v>
       </c>
       <c r="C24" s="2">
-        <v>0.012229</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>1.2229E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -9807,10 +9807,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="2">
-        <v>0.016777</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <v>1.6777E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -9818,10 +9818,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>0.006542</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+        <v>6.5420000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -9829,10 +9829,10 @@
         <v>34</v>
       </c>
       <c r="C27" s="2">
-        <v>0.016777</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+        <v>1.6777E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -9840,10 +9840,10 @@
         <v>35</v>
       </c>
       <c r="C28" s="2">
-        <v>0.009384</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <v>9.384E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -9851,10 +9851,10 @@
         <v>36</v>
       </c>
       <c r="C29" s="2">
-        <v>0.008816</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <v>8.8159999999999992E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -9862,10 +9862,10 @@
         <v>39</v>
       </c>
       <c r="C30" s="2">
-        <v>0.007233</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <v>7.2329999999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -9873,10 +9873,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="2">
-        <v>0.005358</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <v>5.3579999999999999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -9884,10 +9884,10 @@
         <v>41</v>
       </c>
       <c r="C32" s="2">
-        <v>0.009911</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <v>9.9109999999999997E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -9895,10 +9895,10 @@
         <v>42</v>
       </c>
       <c r="C33" s="2">
-        <v>0.009911</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+        <v>9.9109999999999997E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -9906,10 +9906,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="2">
-        <v>0.004822</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+        <v>4.8219999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -9917,10 +9917,10 @@
         <v>44</v>
       </c>
       <c r="C35" s="2">
-        <v>0.004286</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+        <v>4.2859999999999999E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -9928,10 +9928,10 @@
         <v>45</v>
       </c>
       <c r="C36" s="2">
-        <v>0.014197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+        <v>1.4197E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -9939,10 +9939,10 @@
         <v>46</v>
       </c>
       <c r="C37" s="2">
-        <v>0.007501</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <v>7.5009999999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -9950,10 +9950,10 @@
         <v>47</v>
       </c>
       <c r="C38" s="2">
-        <v>0.009108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <v>9.1079999999999998E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -9961,10 +9961,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="2">
-        <v>0.005358</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <v>5.3579999999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -9972,10 +9972,10 @@
         <v>49</v>
       </c>
       <c r="C40" s="2">
-        <v>0.023305</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <v>2.3304999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -9983,10 +9983,10 @@
         <v>50</v>
       </c>
       <c r="C41" s="2">
-        <v>0.004554</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>4.5539999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -9994,10 +9994,10 @@
         <v>51</v>
       </c>
       <c r="C42" s="2">
-        <v>0.004554</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <v>4.5539999999999999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -10005,10 +10005,10 @@
         <v>52</v>
       </c>
       <c r="C43" s="2">
-        <v>0.004822</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <v>4.8219999999999999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -10016,10 +10016,10 @@
         <v>53</v>
       </c>
       <c r="C44" s="2">
-        <v>0.006161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <v>6.1609999999999998E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -10027,10 +10027,10 @@
         <v>54</v>
       </c>
       <c r="C45" s="2">
-        <v>0.03027</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <v>3.0269999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -10038,10 +10038,10 @@
         <v>55</v>
       </c>
       <c r="C46" s="2">
-        <v>0.016876</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <v>1.6875999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -10049,10 +10049,10 @@
         <v>56</v>
       </c>
       <c r="C47" s="2">
-        <v>0.022502</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+        <v>2.2502000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -10060,10 +10060,10 @@
         <v>57</v>
       </c>
       <c r="C48" s="2">
-        <v>0.003215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <v>3.215E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -10071,10 +10071,10 @@
         <v>58</v>
       </c>
       <c r="C49" s="2">
-        <v>0.003215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <v>3.215E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -10082,10 +10082,10 @@
         <v>59</v>
       </c>
       <c r="C50" s="2">
-        <v>0.074202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+        <v>7.4202000000000004E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -10093,10 +10093,10 @@
         <v>60</v>
       </c>
       <c r="C51" s="2">
-        <v>0.020894</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+        <v>2.0893999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -10104,10 +10104,10 @@
         <v>62</v>
       </c>
       <c r="C52" s="2">
-        <v>0.020626</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+        <v>2.0625999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -10115,10 +10115,10 @@
         <v>66</v>
       </c>
       <c r="C53" s="2">
-        <v>0.010447</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+        <v>1.0447E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -10126,10 +10126,10 @@
         <v>67</v>
       </c>
       <c r="C54" s="2">
-        <v>0.007501</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+        <v>7.5009999999999999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -10137,10 +10137,10 @@
         <v>70</v>
       </c>
       <c r="C55" s="2">
-        <v>0.01768</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+        <v>1.7680000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" customHeight="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -10148,10 +10148,10 @@
         <v>74</v>
       </c>
       <c r="C56" s="2">
-        <v>0.018216</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+        <v>1.8216E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -10159,10 +10159,10 @@
         <v>75</v>
       </c>
       <c r="C57" s="2">
-        <v>0.01259</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+        <v>1.259E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10170,10 +10170,10 @@
         <v>76</v>
       </c>
       <c r="C58" s="2">
-        <v>0.018216</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+        <v>1.8216E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10181,10 +10181,10 @@
         <v>77</v>
       </c>
       <c r="C59" s="2">
-        <v>0.01634</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+        <v>1.634E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10192,10 +10192,10 @@
         <v>78</v>
       </c>
       <c r="C60" s="2">
-        <v>0.019019</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+        <v>1.9019000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10203,10 +10203,10 @@
         <v>79</v>
       </c>
       <c r="C61" s="2">
-        <v>0.010447</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+        <v>1.0447E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -10214,10 +10214,10 @@
         <v>80</v>
       </c>
       <c r="C62" s="2">
-        <v>0.034824</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+        <v>3.4824000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -10225,10 +10225,10 @@
         <v>82</v>
       </c>
       <c r="C63" s="2">
-        <v>0.014465</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+        <v>1.4465E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10236,10 +10236,10 @@
         <v>83</v>
       </c>
       <c r="C64" s="2">
-        <v>0.005358</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+        <v>5.3579999999999999E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -10247,10 +10247,10 @@
         <v>84</v>
       </c>
       <c r="C65" s="2">
-        <v>0.002947</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+        <v>2.947E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -10258,10 +10258,10 @@
         <v>85</v>
       </c>
       <c r="C66" s="2">
-        <v>0.006429</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+        <v>6.4289999999999998E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -10269,10 +10269,10 @@
         <v>86</v>
       </c>
       <c r="C67" s="2">
-        <v>0.005625</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+        <v>5.6249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -10280,10 +10280,10 @@
         <v>88</v>
       </c>
       <c r="C68" s="2">
-        <v>0.012858</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+        <v>1.2858E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" customHeight="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -10291,10 +10291,10 @@
         <v>90</v>
       </c>
       <c r="C69" s="2">
-        <v>0.020894</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+        <v>2.0893999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" customHeight="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -10302,10 +10302,10 @@
         <v>92</v>
       </c>
       <c r="C70" s="2">
-        <v>0.017412</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+        <v>1.7412E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -10313,10 +10313,10 @@
         <v>93</v>
       </c>
       <c r="C71" s="2">
-        <v>0.003215</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+        <v>3.215E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -10324,10 +10324,10 @@
         <v>94</v>
       </c>
       <c r="C72" s="2">
-        <v>0.008036</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+        <v>8.0359999999999997E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" customHeight="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -10335,10 +10335,10 @@
         <v>95</v>
       </c>
       <c r="C73" s="2">
-        <v>0.011251</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+        <v>1.1251000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -10346,10 +10346,10 @@
         <v>96</v>
       </c>
       <c r="C74" s="2">
-        <v>0.010179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+        <v>1.0179000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -10357,10 +10357,10 @@
         <v>97</v>
       </c>
       <c r="C75" s="2">
-        <v>0.004018</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+        <v>4.0179999999999999E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" customHeight="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -10368,10 +10368,10 @@
         <v>98</v>
       </c>
       <c r="C76" s="2">
-        <v>0.009108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+        <v>9.1079999999999998E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" customHeight="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -10379,10 +10379,10 @@
         <v>100</v>
       </c>
       <c r="C77" s="2">
-        <v>0.009911</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+        <v>9.9109999999999997E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" customHeight="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10390,10 +10390,10 @@
         <v>101</v>
       </c>
       <c r="C78" s="2">
-        <v>0.005893</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+        <v>5.8929999999999998E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" customHeight="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10401,10 +10401,10 @@
         <v>102</v>
       </c>
       <c r="C79" s="2">
-        <v>0.001339</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+        <v>1.3389999999999999E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" customHeight="1">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10412,10 +10412,10 @@
         <v>103</v>
       </c>
       <c r="C80" s="2">
-        <v>0.006161</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+        <v>6.1609999999999998E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18.75" customHeight="1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10423,10 +10423,10 @@
         <v>104</v>
       </c>
       <c r="C81" s="2">
-        <v>0.010179</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+        <v>1.0179000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.75" customHeight="1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10434,10 +10434,10 @@
         <v>105</v>
       </c>
       <c r="C82" s="2">
-        <v>0.008304</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+        <v>8.3040000000000006E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.75" customHeight="1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10445,10 +10445,10 @@
         <v>106</v>
       </c>
       <c r="C83" s="2">
-        <v>0.011519</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+        <v>1.1519E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10456,10 +10456,10 @@
         <v>107</v>
       </c>
       <c r="C84" s="2">
-        <v>0.007501</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+        <v>7.5009999999999999E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" customHeight="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10467,10 +10467,10 @@
         <v>108</v>
       </c>
       <c r="C85" s="2">
-        <v>0.000536</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+        <v>5.3600000000000002E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" customHeight="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10478,10 +10478,10 @@
         <v>109</v>
       </c>
       <c r="C86" s="2">
-        <v>0.002143</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+        <v>2.1429999999999999E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" customHeight="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10489,10 +10489,10 @@
         <v>110</v>
       </c>
       <c r="C87" s="2">
-        <v>0.010447</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+        <v>1.0447E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" customHeight="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -10500,10 +10500,10 @@
         <v>112</v>
       </c>
       <c r="C88" s="2">
-        <v>0.006697</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+        <v>6.6969999999999998E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" customHeight="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -10511,10 +10511,10 @@
         <v>114</v>
       </c>
       <c r="C89" s="2">
-        <v>0.002274</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+        <v>2.274E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" customHeight="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -10522,10 +10522,10 @@
         <v>115</v>
       </c>
       <c r="C90" s="2">
-        <v>0.006255</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+        <v>6.2550000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" customHeight="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -10533,10 +10533,10 @@
         <v>117</v>
       </c>
       <c r="C91" s="2">
-        <v>0.005687</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+        <v>5.6870000000000002E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" customHeight="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>118</v>
       </c>
       <c r="C92" s="2">
-        <v>0.00884</v>
+        <v>8.8400000000000006E-3</v>
       </c>
     </row>
   </sheetData>
